--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1821086\GitHub\1821086-matsuo-thesis\1821086_matsuo_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10900" windowHeight="6730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10900" windowHeight="6730" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="自作平均算出プログラムの整合性チェック" sheetId="1" r:id="rId1"/>
+    <sheet name="SQLITE整合性検証" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>レスポンスデータ5/25~26</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +45,19 @@
     <t>平均</t>
     <rPh sb="0" eb="2">
       <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa-aaaa-aaaa</t>
+  </si>
+  <si>
+    <t>平均合計</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -102,13 +120,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -116,6 +245,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -133,6 +292,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows ユーザー" refreshedDate="44382.674670023145" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:A18" sheet="SQLITE整合性検証"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="1|86.333||aaa-aaaa-aaaa" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <s v="2|0.459405||2021-07-05 12:17:44.899271"/>
+  </r>
+  <r>
+    <s v="3|0.481493||2021-07-05 12:18:10.689295"/>
+  </r>
+  <r>
+    <s v="4|0.481066||2021-07-05 12:18:13.621690"/>
+  </r>
+  <r>
+    <s v="5|0.477592||2021-07-05 12:29:09.361630"/>
+  </r>
+  <r>
+    <s v="6|0.469635||2021-07-05 12:29:11.649679"/>
+  </r>
+  <r>
+    <s v="7|0.589692||2021-07-05 13:53:09.377022"/>
+  </r>
+  <r>
+    <s v="8|0.541492||2021-07-05 14:06:16.736314"/>
+  </r>
+  <r>
+    <s v="9|0.487968||2021-07-05 14:06:18.523106"/>
+  </r>
+  <r>
+    <s v="10|0.481446||2021-07-05 14:06:19.944470"/>
+  </r>
+  <r>
+    <s v="11|0.446723||2021-07-05 14:21:26.929922"/>
+  </r>
+  <r>
+    <s v="12|0.474719||2021-07-05 14:24:00.752407"/>
+  </r>
+  <r>
+    <s v="13|0.472574||2021-07-05 14:27:10.024453"/>
+  </r>
+  <r>
+    <s v="14|0.502443||2021-07-05 14:57:32.270234"/>
+  </r>
+  <r>
+    <s v="15|0.801782||2021-07-05 14:57:54.533690"/>
+  </r>
+  <r>
+    <s v="16|0.478012||2021-07-05 15:13:46.751904"/>
+  </r>
+  <r>
+    <s v="17|0.448773||2021-07-05 15:40:31.323363"/>
+  </r>
+  <r>
+    <s v="18|1.500632||2021-07-05 16:07:02.544990"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="1">
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -684,4 +932,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>86.332999999999998</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.45940500000000001</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44382.512325219905</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B1:B18)</f>
+        <v>5.3293581666666672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.481493</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44382.51262371528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.48106599999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44382.512657662039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.47759200000000002</v>
+      </c>
+      <c r="D5" s="12">
+        <v>44382.520247245367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.46963500000000002</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44382.520273726848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.58969199999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44382.578580752313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.54149199999999997</v>
+      </c>
+      <c r="D8" s="12">
+        <v>44382.587693703703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.48796800000000001</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44382.587714386573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.48144599999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44382.587730833337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.44672299999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44382.598228356481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.474719</v>
+      </c>
+      <c r="D12" s="12">
+        <v>44382.600008703703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.47257399999999999</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44382.602199351852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.50244299999999997</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44382.623290162039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.80178199999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44382.623547847223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.47801199999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44382.63456888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.44877299999999998</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44382.653140312497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.500632</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44382.6715572338</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>